--- a/artfynd/A 12419-2021.xlsx
+++ b/artfynd/A 12419-2021.xlsx
@@ -680,53 +680,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>335054</v>
+        <v>61620347</v>
       </c>
       <c r="B2" t="n">
-        <v>77624</v>
+        <v>95514</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1036</v>
+        <v>224361</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hållav</t>
+          <t>Vanlig lopplummer</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Menegazzia terebrata</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>(Hoffm.) A.Massal.</t>
-        </is>
-      </c>
+          <t>Huperzia selago subsp. selago</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>VITMOSSEN, Ög</t>
+          <t>Vitmossen, ost, Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>562354.6778509403</v>
+        <v>562346.5789735193</v>
       </c>
       <c r="R2" t="n">
-        <v>6506996.198731161</v>
+        <v>6507176.418449968</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +749,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1998-07-01</t>
+          <t>2016-10-02</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +759,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1998-07-01</t>
+          <t>2016-10-02</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -770,7 +769,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Datum ej exakt.</t>
+          <t>Endast två tuvor.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -782,34 +781,34 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AR2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Berghäll</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Tommy Karlsson</t>
+          <t>Mirjam Ideström</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Mikael Hagström</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Sällsynta lavar i Östergötland 2000</t>
-        </is>
-      </c>
+          <t>Mirjam Ideström, Jan-Erik Axelsson</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>61620347</v>
+        <v>61620120</v>
       </c>
       <c r="B3" t="n">
-        <v>95514</v>
+        <v>95526</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -818,16 +817,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>224361</v>
+        <v>224358</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vanlig lopplummer</t>
+          <t>Vanlig plattlummer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Huperzia selago subsp. selago</t>
+          <t>Lycopodium complanatum subsp. complanatum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -891,7 +890,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Endast två tuvor.</t>
+          <t>Kanske 20 skott</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -905,7 +904,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Berghäll</t>
+          <t>Gles tallskog</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -923,52 +922,53 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>61620120</v>
+        <v>335054</v>
       </c>
       <c r="B4" t="n">
-        <v>95526</v>
+        <v>77624</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>224358</v>
+        <v>1036</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vanlig plattlummer</t>
+          <t>Hållav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum subsp. complanatum</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>Menegazzia terebrata</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Hoffm.) A.Massal.</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Vitmossen, ost, Ög</t>
+          <t>VITMOSSEN, Ög</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>562346.5789735193</v>
+        <v>562354.6778509403</v>
       </c>
       <c r="R4" t="n">
-        <v>6507176.418449968</v>
+        <v>6506996.198731161</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2016-10-02</t>
+          <t>1998-07-01</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2016-10-02</t>
+          <t>1998-07-01</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Kanske 20 skott</t>
+          <t>Datum ej exakt.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1024,23 +1024,23 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>Gles tallskog</t>
-        </is>
-      </c>
+      <c r="AR4" t="inlineStr"/>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Mirjam Ideström</t>
+          <t>Tommy Karlsson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Mirjam Ideström, Jan-Erik Axelsson</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr"/>
+          <t>Mikael Hagström</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Sällsynta lavar i Östergötland 2000</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 12419-2021.xlsx
+++ b/artfynd/A 12419-2021.xlsx
@@ -680,52 +680,53 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>61620347</v>
+        <v>335054</v>
       </c>
       <c r="B2" t="n">
-        <v>95514</v>
+        <v>77624</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>224361</v>
+        <v>1036</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vanlig lopplummer</t>
+          <t>Hållav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Huperzia selago subsp. selago</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>Menegazzia terebrata</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>(Hoffm.) A.Massal.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Vitmossen, ost, Ög</t>
+          <t>VITMOSSEN, Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>562346.5789735193</v>
+        <v>562354.6778509403</v>
       </c>
       <c r="R2" t="n">
-        <v>6507176.418449968</v>
+        <v>6506996.198731161</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -749,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2016-10-02</t>
+          <t>1998-07-01</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -759,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2016-10-02</t>
+          <t>1998-07-01</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -769,7 +770,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Endast två tuvor.</t>
+          <t>Datum ej exakt.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -781,34 +782,34 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Berghäll</t>
-        </is>
-      </c>
+      <c r="AR2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Mirjam Ideström</t>
+          <t>Tommy Karlsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Mirjam Ideström, Jan-Erik Axelsson</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Mikael Hagström</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Sällsynta lavar i Östergötland 2000</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>61620120</v>
+        <v>61620347</v>
       </c>
       <c r="B3" t="n">
-        <v>95526</v>
+        <v>95514</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -817,16 +818,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>224358</v>
+        <v>224361</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vanlig plattlummer</t>
+          <t>Vanlig lopplummer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum subsp. complanatum</t>
+          <t>Huperzia selago subsp. selago</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -890,7 +891,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Kanske 20 skott</t>
+          <t>Endast två tuvor.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,7 +905,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Gles tallskog</t>
+          <t>Berghäll</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -922,53 +923,52 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>335054</v>
+        <v>61620120</v>
       </c>
       <c r="B4" t="n">
-        <v>77624</v>
+        <v>95526</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1036</v>
+        <v>224358</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hållav</t>
+          <t>Vanlig plattlummer</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Menegazzia terebrata</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>(Hoffm.) A.Massal.</t>
-        </is>
-      </c>
+          <t>Lycopodium complanatum subsp. complanatum</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>VITMOSSEN, Ög</t>
+          <t>Vitmossen, ost, Ög</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>562354.6778509403</v>
+        <v>562346.5789735193</v>
       </c>
       <c r="R4" t="n">
-        <v>6506996.198731161</v>
+        <v>6507176.418449968</v>
       </c>
       <c r="S4" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1998-07-01</t>
+          <t>2016-10-02</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>1998-07-01</t>
+          <t>2016-10-02</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Datum ej exakt.</t>
+          <t>Kanske 20 skott</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1024,23 +1024,23 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AR4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Gles tallskog</t>
+        </is>
+      </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Tommy Karlsson</t>
+          <t>Mirjam Ideström</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Mikael Hagström</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>Sällsynta lavar i Östergötland 2000</t>
-        </is>
-      </c>
+          <t>Mirjam Ideström, Jan-Erik Axelsson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
